--- a/table/tab1_literature.xlsx
+++ b/table/tab1_literature.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcblauert/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcblauert/Documents/01_Studium/00_INRM/05_MaThesis/MaThesisWriting/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8CDFCA-397F-8B4E-863A-E80949E6DC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C346E8D0-6CA8-7A4A-92C0-54F213D0BB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="840" windowWidth="28040" windowHeight="17360" xr2:uid="{01F21F64-41ED-7241-89A3-549FD21C02A6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{01F21F64-41ED-7241-89A3-549FD21C02A6}"/>
   </bookViews>
   <sheets>
     <sheet name="tab1_literature" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,12 +159,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,22 +189,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -226,6 +217,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -560,26 +554,26 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="29.83203125" style="8" customWidth="1"/>
+    <col min="1" max="5" width="29.83203125" style="7" customWidth="1"/>
     <col min="6" max="6" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -587,116 +581,116 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="D4" s="9" t="str">
         <f>"-0.44 to -0.63"</f>
         <v>-0.44 to -0.63</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10" t="str">
+      <c r="D5" s="9" t="str">
         <f>"-1.68 to -2.03"</f>
         <v>-1.68 to -2.03</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11" t="str">
+      <c r="D6" s="10" t="str">
         <f>"-0.31 to -0.43"</f>
         <v>-0.31 to -0.43</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="11" t="str">
+      <c r="D7" s="10" t="str">
         <f>"-0.50"</f>
         <v>-0.50</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="10"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="10" t="str">
+      <c r="D10" s="9" t="str">
         <f>"-0.57"</f>
         <v>-0.57</v>
       </c>
@@ -706,16 +700,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="10" t="str">
+      <c r="D11" s="9" t="str">
         <f>"-0.08"</f>
         <v>-0.08</v>
       </c>
@@ -724,12 +718,12 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="10" t="str">
+      <c r="D12" s="9" t="str">
         <f>"-0.02"</f>
         <v>-0.02</v>
       </c>
@@ -738,48 +732,48 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="10" t="str">
+      <c r="D13" s="9" t="str">
         <f>"-0.34 to -0.56"</f>
         <v>-0.34 to -0.56</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="10" t="str">
+      <c r="D14" s="9" t="str">
         <f>"-0.40 to -0.49"</f>
         <v>-0.40 to -0.49</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="10" t="str">
+      <c r="D15" s="9" t="str">
         <f>"-0.48 to -0.71"</f>
         <v>-0.48 to -0.71</v>
       </c>
@@ -788,21 +782,21 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16" s="9"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
